--- a/final ratings data (minus exclusions).xlsx
+++ b/final ratings data (minus exclusions).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="What_makes_a_good_explanation_D" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
   <si>
     <t>V8</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Consent</t>
-  </si>
-  <si>
-    <t>CrowdFlower ID</t>
   </si>
   <si>
     <t>Gender</t>
@@ -279,19 +276,13 @@
     <t xml:space="preserve">I read the instructions </t>
   </si>
   <si>
-    <t>hladir</t>
-  </si>
-  <si>
     <t>I read he instructions</t>
   </si>
   <si>
     <t>he leido las instrucciones</t>
   </si>
   <si>
-    <t>Leanne</t>
-  </si>
-  <si>
-    <t>venusdemilom</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -799,50 +790,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1146,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1157,17 +1148,18 @@
   <dimension ref="A1:CR157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CC2" sqref="CC2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,535 +1173,535 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="J2">
-        <f>AVERAGE(J3:J151)</f>
+        <f t="shared" ref="J2:AO2" si="0">AVERAGE(J3:J151)</f>
         <v>5.3589743589743586</v>
       </c>
       <c r="K2">
-        <f>AVERAGE(K3:K151)</f>
+        <f t="shared" si="0"/>
         <v>5.4615384615384617</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(L3:L151)</f>
+        <f t="shared" si="0"/>
         <v>3.6842105263157894</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(M3:M151)</f>
+        <f t="shared" si="0"/>
         <v>4.8684210526315788</v>
       </c>
       <c r="N2">
-        <f>AVERAGE(N3:N151)</f>
+        <f t="shared" si="0"/>
         <v>5.4871794871794872</v>
       </c>
       <c r="O2">
-        <f>AVERAGE(O3:O151)</f>
+        <f t="shared" si="0"/>
         <v>5.5384615384615383</v>
       </c>
       <c r="P2">
-        <f>AVERAGE(P3:P151)</f>
+        <f t="shared" si="0"/>
         <v>4.2307692307692308</v>
       </c>
       <c r="Q2">
-        <f>AVERAGE(Q3:Q151)</f>
+        <f t="shared" si="0"/>
         <v>5.1794871794871797</v>
       </c>
       <c r="R2">
-        <f>AVERAGE(R3:R151)</f>
+        <f t="shared" si="0"/>
         <v>4.6341463414634143</v>
       </c>
       <c r="S2">
-        <f>AVERAGE(S3:S151)</f>
+        <f t="shared" si="0"/>
         <v>5.0731707317073171</v>
       </c>
       <c r="T2">
-        <f>AVERAGE(T3:T151)</f>
+        <f t="shared" si="0"/>
         <v>3.1463414634146343</v>
       </c>
       <c r="U2">
-        <f>AVERAGE(U3:U151)</f>
+        <f t="shared" si="0"/>
         <v>5.0731707317073171</v>
       </c>
       <c r="V2">
-        <f>AVERAGE(V3:V151)</f>
+        <f t="shared" si="0"/>
         <v>4.9230769230769234</v>
       </c>
       <c r="W2">
-        <f>AVERAGE(W3:W151)</f>
+        <f t="shared" si="0"/>
         <v>4.9487179487179489</v>
       </c>
       <c r="X2">
-        <f>AVERAGE(X3:X151)</f>
+        <f t="shared" si="0"/>
         <v>4.7435897435897436</v>
       </c>
       <c r="Y2">
-        <f>AVERAGE(Y3:Y151)</f>
+        <f t="shared" si="0"/>
         <v>5.384615384615385</v>
       </c>
       <c r="Z2">
-        <f>AVERAGE(Z3:Z151)</f>
+        <f t="shared" si="0"/>
         <v>4.975609756097561</v>
       </c>
       <c r="AA2">
-        <f>AVERAGE(AA3:AA151)</f>
+        <f t="shared" si="0"/>
         <v>4.8292682926829267</v>
       </c>
       <c r="AB2">
-        <f>AVERAGE(AB3:AB151)</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="AC2">
-        <f>AVERAGE(AC3:AC151)</f>
+        <f t="shared" si="0"/>
         <v>4.8974358974358978</v>
       </c>
       <c r="AD2">
-        <f>AVERAGE(AD3:AD151)</f>
+        <f t="shared" si="0"/>
         <v>4.615384615384615</v>
       </c>
       <c r="AE2">
-        <f>AVERAGE(AE3:AE151)</f>
+        <f t="shared" si="0"/>
         <v>5.2307692307692308</v>
       </c>
       <c r="AF2">
-        <f>AVERAGE(AF3:AF151)</f>
+        <f t="shared" si="0"/>
         <v>2.6749999999999998</v>
       </c>
       <c r="AG2">
-        <f>AVERAGE(AG3:AG151)</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="AH2">
-        <f>AVERAGE(AH3:AH151)</f>
+        <f t="shared" si="0"/>
         <v>6.0512820512820511</v>
       </c>
       <c r="AI2">
-        <f>AVERAGE(AI3:AI151)</f>
+        <f t="shared" si="0"/>
         <v>6.1794871794871797</v>
       </c>
       <c r="AJ2">
-        <f>AVERAGE(AJ3:AJ151)</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="AK2">
-        <f>AVERAGE(AK3:AK151)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AL2">
-        <f>AVERAGE(AL3:AL151)</f>
+        <f t="shared" si="0"/>
         <v>5.7560975609756095</v>
       </c>
       <c r="AM2">
-        <f>AVERAGE(AM3:AM151)</f>
+        <f t="shared" si="0"/>
         <v>5.8536585365853657</v>
       </c>
       <c r="AN2">
-        <f>AVERAGE(AN3:AN151)</f>
+        <f t="shared" si="0"/>
         <v>3.8974358974358974</v>
       </c>
       <c r="AO2">
-        <f>AVERAGE(AO3:AO151)</f>
+        <f t="shared" si="0"/>
         <v>5.0256410256410255</v>
       </c>
       <c r="AP2">
-        <f>AVERAGE(AP3:AP151)</f>
+        <f t="shared" ref="AP2:BU2" si="1">AVERAGE(AP3:AP151)</f>
         <v>5.8947368421052628</v>
       </c>
       <c r="AQ2">
-        <f>AVERAGE(AQ3:AQ151)</f>
+        <f t="shared" si="1"/>
         <v>5.8421052631578947</v>
       </c>
       <c r="AR2">
-        <f>AVERAGE(AR3:AR151)</f>
+        <f t="shared" si="1"/>
         <v>4.2051282051282053</v>
       </c>
       <c r="AS2">
-        <f>AVERAGE(AS3:AS151)</f>
+        <f t="shared" si="1"/>
         <v>4.7435897435897436</v>
       </c>
       <c r="AT2">
-        <f>AVERAGE(AT3:AT151)</f>
+        <f t="shared" si="1"/>
         <v>4.2619047619047619</v>
       </c>
       <c r="AU2">
-        <f>AVERAGE(AU3:AU151)</f>
+        <f t="shared" si="1"/>
         <v>5.1904761904761907</v>
       </c>
       <c r="AV2">
-        <f>AVERAGE(AV3:AV151)</f>
+        <f t="shared" si="1"/>
         <v>5.5227272727272725</v>
       </c>
       <c r="AW2">
-        <f>AVERAGE(AW3:AW151)</f>
+        <f t="shared" si="1"/>
         <v>5.5681818181818183</v>
       </c>
       <c r="AX2">
-        <f>AVERAGE(AX3:AX151)</f>
+        <f t="shared" si="1"/>
         <v>4.0681818181818183</v>
       </c>
       <c r="AY2">
-        <f>AVERAGE(AY3:AY151)</f>
+        <f t="shared" si="1"/>
         <v>5.1590909090909092</v>
       </c>
       <c r="AZ2">
-        <f>AVERAGE(AZ3:AZ151)</f>
+        <f t="shared" si="1"/>
         <v>5.1590909090909092</v>
       </c>
       <c r="BA2">
-        <f>AVERAGE(BA3:BA151)</f>
+        <f t="shared" si="1"/>
         <v>5.1363636363636367</v>
       </c>
       <c r="BB2">
-        <f>AVERAGE(BB3:BB151)</f>
+        <f t="shared" si="1"/>
         <v>3.558139534883721</v>
       </c>
       <c r="BC2">
-        <f>AVERAGE(BC3:BC151)</f>
+        <f t="shared" si="1"/>
         <v>4.6511627906976747</v>
       </c>
       <c r="BD2">
-        <f>AVERAGE(BD3:BD151)</f>
+        <f t="shared" si="1"/>
         <v>3.8095238095238093</v>
       </c>
       <c r="BE2">
-        <f>AVERAGE(BE3:BE151)</f>
+        <f t="shared" si="1"/>
         <v>4.9047619047619051</v>
       </c>
       <c r="BF2">
-        <f>AVERAGE(BF3:BF151)</f>
+        <f t="shared" si="1"/>
         <v>3.3902439024390243</v>
       </c>
       <c r="BG2">
-        <f>AVERAGE(BG3:BG151)</f>
+        <f t="shared" si="1"/>
         <v>5.0487804878048781</v>
       </c>
       <c r="BH2">
-        <f>AVERAGE(BH3:BH151)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="BI2">
-        <f>AVERAGE(BI3:BI151)</f>
+        <f t="shared" si="1"/>
         <v>5.5454545454545459</v>
       </c>
       <c r="BJ2">
-        <f>AVERAGE(BJ3:BJ151)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BK2">
-        <f>AVERAGE(BK3:BK151)</f>
+        <f t="shared" si="1"/>
         <v>5.3181818181818183</v>
       </c>
       <c r="BL2">
-        <f>AVERAGE(BL3:BL151)</f>
+        <f t="shared" si="1"/>
         <v>5.0975609756097562</v>
       </c>
       <c r="BM2">
-        <f>AVERAGE(BM3:BM151)</f>
+        <f t="shared" si="1"/>
         <v>5.3414634146341466</v>
       </c>
       <c r="BN2">
-        <f>AVERAGE(BN3:BN151)</f>
+        <f t="shared" si="1"/>
         <v>4.1818181818181817</v>
       </c>
       <c r="BO2">
-        <f>AVERAGE(BO3:BO151)</f>
+        <f t="shared" si="1"/>
         <v>4.9318181818181817</v>
       </c>
       <c r="BP2">
-        <f>AVERAGE(BP3:BP151)</f>
+        <f t="shared" si="1"/>
         <v>5.5116279069767442</v>
       </c>
       <c r="BQ2">
-        <f>AVERAGE(BQ3:BQ151)</f>
+        <f t="shared" si="1"/>
         <v>5.558139534883721</v>
       </c>
       <c r="BR2">
-        <f>AVERAGE(BR3:BR151)</f>
+        <f t="shared" si="1"/>
         <v>3.9318181818181817</v>
       </c>
       <c r="BS2">
-        <f>AVERAGE(BS3:BS151)</f>
+        <f t="shared" si="1"/>
         <v>5.1363636363636367</v>
       </c>
       <c r="BT2">
-        <f>AVERAGE(BT3:BT151)</f>
+        <f t="shared" si="1"/>
         <v>4.7906976744186043</v>
       </c>
       <c r="BU2">
-        <f>AVERAGE(BU3:BU151)</f>
+        <f t="shared" si="1"/>
         <v>5.0697674418604652</v>
       </c>
       <c r="BV2">
-        <f>AVERAGE(BV3:BV151)</f>
+        <f t="shared" ref="BV2:DA2" si="2">AVERAGE(BV3:BV151)</f>
         <v>4.8043478260869561</v>
       </c>
       <c r="BW2">
-        <f>AVERAGE(BW3:BW151)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BX2">
-        <f>AVERAGE(BX3:BX151)</f>
+        <f t="shared" si="2"/>
         <v>4.5777777777777775</v>
       </c>
       <c r="BY2">
-        <f>AVERAGE(BY3:BY151)</f>
+        <f t="shared" si="2"/>
         <v>4.8888888888888893</v>
       </c>
       <c r="BZ2">
-        <f>AVERAGE(BZ3:BZ151)</f>
+        <f t="shared" si="2"/>
         <v>4.7380952380952381</v>
       </c>
       <c r="CA2">
-        <f>AVERAGE(CA3:CA151)</f>
+        <f t="shared" si="2"/>
         <v>4.9523809523809526</v>
       </c>
       <c r="CB2">
-        <f>AVERAGE(CB3:CB151)</f>
+        <f t="shared" si="2"/>
         <v>4.2272727272727275</v>
       </c>
       <c r="CC2">
-        <f>AVERAGE(CC3:CC151)</f>
+        <f t="shared" si="2"/>
         <v>4.5681818181818183</v>
       </c>
       <c r="CD2">
-        <f>AVERAGE(CD3:CD151)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42902.490520833337</v>
       </c>
@@ -1723,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>43383669</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1735,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV3">
         <v>4</v>
@@ -1801,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42902.488761574074</v>
       </c>
@@ -1815,7 +1807,8 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2438945</v>
+        <f>E3+1</f>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1827,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT4">
         <v>6</v>
@@ -1893,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42902.493750000001</v>
       </c>
@@ -1907,7 +1900,8 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>43410631</v>
+        <f t="shared" ref="E5:E68" si="3">E4+1</f>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1919,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB5">
         <v>7</v>
@@ -1985,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42902.49355324074</v>
       </c>
@@ -1999,7 +1993,8 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>38323940</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2011,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT6">
         <v>5</v>
@@ -2077,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42902.494872685187</v>
       </c>
@@ -2091,7 +2086,8 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>21088425</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2103,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -2169,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42902.496516203704</v>
       </c>
@@ -2183,7 +2179,8 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>42693607</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2195,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT8">
         <v>5</v>
@@ -2261,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42902.490925925929</v>
       </c>
@@ -2275,7 +2272,8 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40493244</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2287,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -2353,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42902.496608796297</v>
       </c>
@@ -2367,7 +2365,8 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>42435779</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2379,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2445,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42902.499988425923</v>
       </c>
@@ -2459,7 +2458,8 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>43341647</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX11">
         <v>5</v>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42902.508703703701</v>
       </c>
@@ -2551,7 +2551,8 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>5055767</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2563,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -2629,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42902.503842592596</v>
       </c>
@@ -2643,7 +2644,8 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>31883685</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2655,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2721,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42902.507465277777</v>
       </c>
@@ -2735,7 +2737,8 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>29463692</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2747,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2813,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42902.51152777778</v>
       </c>
@@ -2827,7 +2830,8 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>20306047</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2839,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT15">
         <v>2</v>
@@ -2905,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42902.511006944442</v>
       </c>
@@ -2919,7 +2923,8 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>41502611</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2931,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BH16">
         <v>1</v>
@@ -2997,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42902.515787037039</v>
       </c>
@@ -3011,7 +3016,8 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>13197642</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3023,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT17">
         <v>6</v>
@@ -3089,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42902.514467592591</v>
       </c>
@@ -3103,7 +3109,8 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>4385969</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -3115,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3181,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42902.516238425924</v>
       </c>
@@ -3195,7 +3202,8 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>31988217</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3207,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV19">
         <v>6</v>
@@ -3273,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42902.517245370371</v>
       </c>
@@ -3287,7 +3295,8 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>42763394</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3299,7 +3308,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3365,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42902.512233796297</v>
       </c>
@@ -3379,7 +3388,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>42823656</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3391,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -3457,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42902.520416666666</v>
       </c>
@@ -3471,7 +3481,8 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>38913334</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -3483,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV22">
         <v>5</v>
@@ -3549,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42902.523182870369</v>
       </c>
@@ -3563,7 +3574,8 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>21785776</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -3575,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -3641,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42902.526076388887</v>
       </c>
@@ -3655,7 +3667,8 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>38806465</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3667,7 +3680,7 @@
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT24">
         <v>3</v>
@@ -3733,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42902.527962962966</v>
       </c>
@@ -3747,7 +3760,8 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>41499434</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3759,7 +3773,7 @@
         <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -3825,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42902.530891203707</v>
       </c>
@@ -3839,7 +3853,8 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>38274743</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3851,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -3917,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42902.507164351853</v>
       </c>
@@ -3931,7 +3946,8 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>42469066</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3943,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV27">
         <v>6</v>
@@ -4009,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42902.530358796299</v>
       </c>
@@ -4023,7 +4039,8 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>29950119</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -4035,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT28">
         <v>5</v>
@@ -4101,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42902.533993055556</v>
       </c>
@@ -4115,7 +4132,8 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>12115558</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -4127,7 +4145,7 @@
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT29">
         <v>3</v>
@@ -4193,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42902.523472222223</v>
       </c>
@@ -4207,7 +4225,8 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>43374090</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4219,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -4285,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42902.535162037035</v>
       </c>
@@ -4299,7 +4318,8 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2034278</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4311,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -4377,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42902.535995370374</v>
       </c>
@@ -4391,7 +4411,8 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>31994588</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -4403,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV32">
         <v>6</v>
@@ -4469,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42902.536527777775</v>
       </c>
@@ -4483,7 +4504,8 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>30888099</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4495,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT33">
         <v>6</v>
@@ -4561,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42902.537523148145</v>
       </c>
@@ -4575,7 +4597,8 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>39226056</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -4587,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34">
         <v>6</v>
@@ -4653,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42902.534571759257</v>
       </c>
@@ -4667,7 +4690,8 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>40981106</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4679,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -4745,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42902.539548611108</v>
       </c>
@@ -4759,7 +4783,8 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>29946110</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -4771,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV36">
         <v>6</v>
@@ -4837,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:82">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42902.54787037037</v>
       </c>
@@ -4851,7 +4876,8 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>34070076</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4863,7 +4889,7 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV37">
         <v>6</v>
@@ -4929,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:82">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42902.548101851855</v>
       </c>
@@ -4943,7 +4969,8 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>4538215</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4955,7 +4982,7 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38">
         <v>6</v>
@@ -5021,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:82">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42902.549722222226</v>
       </c>
@@ -5035,7 +5062,8 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>38202325</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -5047,7 +5075,7 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -5113,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:82">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42902.560601851852</v>
       </c>
@@ -5127,7 +5155,8 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>6336109</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -5139,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -5205,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:82">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42902.568877314814</v>
       </c>
@@ -5219,7 +5248,8 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>18215885</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -5231,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV41">
         <v>6</v>
@@ -5297,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:82">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42902.564895833333</v>
       </c>
@@ -5311,7 +5341,8 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>21843889</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5323,7 +5354,7 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT42">
         <v>6</v>
@@ -5389,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:82">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42902.571909722225</v>
       </c>
@@ -5403,7 +5434,8 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>36929821</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -5415,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43">
         <v>7</v>
@@ -5481,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:82">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42902.567499999997</v>
       </c>
@@ -5495,7 +5527,8 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>38932488</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -5507,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -5573,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:82">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42902.57640046296</v>
       </c>
@@ -5587,7 +5620,8 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>39174418</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5599,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV45">
         <v>5</v>
@@ -5665,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:82">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42902.590891203705</v>
       </c>
@@ -5679,7 +5713,8 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>37177227</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -5691,7 +5726,7 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT46">
         <v>5</v>
@@ -5757,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:82">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42902.5934837963</v>
       </c>
@@ -5771,7 +5806,8 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>18666417</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -5783,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -5849,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:82">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42902.593472222223</v>
       </c>
@@ -5863,7 +5899,8 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>32547262</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -5875,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48">
         <v>4</v>
@@ -5941,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:82">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42902.594814814816</v>
       </c>
@@ -5955,7 +5992,8 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>43540969</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -5967,7 +6005,7 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -6033,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:82">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42902.591400462959</v>
       </c>
@@ -6047,7 +6085,8 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>42782718</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6059,7 +6098,7 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT50">
         <v>5</v>
@@ -6125,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:82">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42902.593414351853</v>
       </c>
@@ -6139,7 +6178,8 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>43603219</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6151,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV51">
         <v>3</v>
@@ -6217,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:82">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42902.598634259259</v>
       </c>
@@ -6231,7 +6271,8 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>29096504</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6243,7 +6284,7 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L52">
         <v>3</v>
@@ -6309,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:82">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42902.597951388889</v>
       </c>
@@ -6323,7 +6364,8 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>27934334</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -6335,7 +6377,7 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ53">
         <v>5</v>
@@ -6401,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:82">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42902.601793981485</v>
       </c>
@@ -6415,7 +6457,8 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>18881135</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -6427,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV54">
         <v>6</v>
@@ -6493,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:82">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42902.604490740741</v>
       </c>
@@ -6507,7 +6550,8 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>12009597</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -6519,7 +6563,7 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -6585,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:82">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42902.606689814813</v>
       </c>
@@ -6599,7 +6643,8 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>39911407</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -6611,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT56">
         <v>4</v>
@@ -6677,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:82">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42902.610555555555</v>
       </c>
@@ -6691,7 +6736,8 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>31580375</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -6703,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV57">
         <v>4</v>
@@ -6769,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:82">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42902.609907407408</v>
       </c>
@@ -6783,7 +6829,8 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>18277968</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -6795,7 +6842,7 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58">
         <v>7</v>
@@ -6861,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:82">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42902.60974537037</v>
       </c>
@@ -6875,7 +6922,8 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>16844474</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -6887,7 +6935,7 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT59">
         <v>5</v>
@@ -6953,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:82">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42902.6090625</v>
       </c>
@@ -6967,7 +7015,8 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>14976706</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6979,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -7045,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:82">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42902.608171296299</v>
       </c>
@@ -7059,7 +7108,8 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>41749010</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -7071,7 +7121,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT61">
         <v>7</v>
@@ -7137,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:82">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42902.613043981481</v>
       </c>
@@ -7151,7 +7201,8 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>37274011</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -7163,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -7229,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:82">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42902.615347222221</v>
       </c>
@@ -7242,8 +7293,9 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
-        <v>86</v>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -7255,7 +7307,7 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT63">
         <v>6</v>
@@ -7321,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:82">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42902.613298611112</v>
       </c>
@@ -7335,7 +7387,8 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>40925305</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -7347,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -7413,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:82">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42902.619155092594</v>
       </c>
@@ -7427,7 +7480,8 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>42031151</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -7439,7 +7493,7 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -7505,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:82">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42902.619502314818</v>
       </c>
@@ -7519,7 +7573,8 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>29289135</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -7531,7 +7586,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -7597,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:82">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42902.618877314817</v>
       </c>
@@ -7611,7 +7666,8 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>38935031</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -7623,7 +7679,7 @@
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT67">
         <v>5</v>
@@ -7689,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:82">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42902.624768518515</v>
       </c>
@@ -7703,7 +7759,8 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>21711637</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -7715,7 +7772,7 @@
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R68">
         <v>2</v>
@@ -7781,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:82">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42902.615891203706</v>
       </c>
@@ -7795,7 +7852,8 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1023541</v>
+        <f t="shared" ref="E69:E132" si="4">E68+1</f>
+        <v>67</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7807,7 +7865,7 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -7873,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:82">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42902.624027777776</v>
       </c>
@@ -7887,7 +7945,8 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>22016719</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -7899,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV70">
         <v>7</v>
@@ -7965,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:82">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42902.628148148149</v>
       </c>
@@ -7979,7 +8038,8 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>34080947</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -7991,7 +8051,7 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT71">
         <v>6</v>
@@ -8057,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:82">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42902.62363425926</v>
       </c>
@@ -8071,7 +8131,8 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>36350388</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -8083,7 +8144,7 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -8149,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:82">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42902.635185185187</v>
       </c>
@@ -8163,7 +8224,8 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>43417257</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -8175,7 +8237,7 @@
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT73">
         <v>3</v>
@@ -8241,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:82">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42902.640069444446</v>
       </c>
@@ -8255,7 +8317,8 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>43604970</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -8267,7 +8330,7 @@
         <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -8333,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:82">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42902.639398148145</v>
       </c>
@@ -8347,7 +8410,8 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>42660466</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -8359,7 +8423,7 @@
         <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ75">
         <v>6</v>
@@ -8425,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:82">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42902.642638888887</v>
       </c>
@@ -8439,7 +8503,8 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>5736016</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -8451,7 +8516,7 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N76">
         <v>4</v>
@@ -8517,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:82">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42902.646597222221</v>
       </c>
@@ -8531,7 +8596,8 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>37501225</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -8540,7 +8606,7 @@
         <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV77">
         <v>4</v>
@@ -8606,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:82">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42902.646874999999</v>
       </c>
@@ -8620,7 +8686,8 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>43541506</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -8632,7 +8699,7 @@
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV78">
         <v>5</v>
@@ -8698,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:82">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42902.64671296296</v>
       </c>
@@ -8712,7 +8779,8 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>39511002</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -8724,7 +8792,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -8790,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:82">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42902.641689814816</v>
       </c>
@@ -8804,7 +8872,8 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>35849301</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -8816,7 +8885,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -8882,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:82">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42902.648287037038</v>
       </c>
@@ -8896,7 +8965,8 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>41841195</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -8908,7 +8978,7 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J81">
         <v>4</v>
@@ -8974,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:82">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42902.65216435185</v>
       </c>
@@ -8988,7 +9058,8 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>35444495</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -9000,7 +9071,7 @@
         <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT82">
         <v>4</v>
@@ -9066,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:82">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42902.653136574074</v>
       </c>
@@ -9080,7 +9151,8 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>22298499</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -9092,7 +9164,7 @@
         <v>7</v>
       </c>
       <c r="I83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT83">
         <v>7</v>
@@ -9158,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:82">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42902.645972222221</v>
       </c>
@@ -9172,7 +9244,8 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>40174727</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -9184,7 +9257,7 @@
         <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT84">
         <v>4</v>
@@ -9250,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:82">
+    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42902.653854166667</v>
       </c>
@@ -9264,7 +9337,8 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>34040918</v>
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -9276,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -9342,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:82">
+    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42902.655243055553</v>
       </c>
@@ -9356,7 +9430,8 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>6331127</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -9368,7 +9443,7 @@
         <v>7</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV86">
         <v>7</v>
@@ -9434,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:82">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42902.654999999999</v>
       </c>
@@ -9448,7 +9523,8 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>6330997</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -9460,7 +9536,7 @@
         <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N87">
         <v>4</v>
@@ -9526,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:82">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42902.650023148148</v>
       </c>
@@ -9540,7 +9616,8 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>22096649</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -9552,7 +9629,7 @@
         <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88">
         <v>6</v>
@@ -9618,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:82">
+    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42902.649131944447</v>
       </c>
@@ -9632,7 +9709,8 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>42412200</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -9644,7 +9722,7 @@
         <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT89">
         <v>6</v>
@@ -9710,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:82">
+    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42902.657962962963</v>
       </c>
@@ -9724,7 +9802,8 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>43538248</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -9736,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="I90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P90">
         <v>4</v>
@@ -9802,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:82">
+    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42902.659120370372</v>
       </c>
@@ -9816,7 +9895,8 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>12897465</v>
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -9828,7 +9908,7 @@
         <v>7</v>
       </c>
       <c r="I91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT91">
         <v>6</v>
@@ -9894,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:82">
+    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42902.661226851851</v>
       </c>
@@ -9908,7 +9988,8 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>31201977</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -9920,7 +10001,7 @@
         <v>7</v>
       </c>
       <c r="I92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV92">
         <v>3</v>
@@ -9986,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:82">
+    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42902.661099537036</v>
       </c>
@@ -10000,7 +10081,8 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>31063905</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -10012,7 +10094,7 @@
         <v>7</v>
       </c>
       <c r="I93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J93">
         <v>7</v>
@@ -10078,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:82">
+    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42902.664178240739</v>
       </c>
@@ -10092,7 +10174,8 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1856261</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -10104,7 +10187,7 @@
         <v>7</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT94">
         <v>3</v>
@@ -10170,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:82">
+    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42902.668252314812</v>
       </c>
@@ -10184,7 +10267,8 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>34233594</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -10196,7 +10280,7 @@
         <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV95">
         <v>7</v>
@@ -10262,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:82">
+    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42902.670729166668</v>
       </c>
@@ -10276,7 +10360,8 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>42436432</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -10288,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="I96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J96">
         <v>6</v>
@@ -10354,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:82">
+    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42902.672314814816</v>
       </c>
@@ -10368,7 +10453,8 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>22594314</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -10380,7 +10466,7 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L97">
         <v>5</v>
@@ -10446,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:82">
+    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42902.671469907407</v>
       </c>
@@ -10460,7 +10546,8 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1870723</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -10472,7 +10559,7 @@
         <v>7</v>
       </c>
       <c r="I98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT98">
         <v>5</v>
@@ -10538,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:82">
+    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42902.669374999998</v>
       </c>
@@ -10552,7 +10639,8 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>25419319</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -10564,7 +10652,7 @@
         <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J99">
         <v>6</v>
@@ -10630,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:82">
+    <row r="100" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42902.672986111109</v>
       </c>
@@ -10644,7 +10732,8 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>18137958</v>
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -10656,7 +10745,7 @@
         <v>7</v>
       </c>
       <c r="I100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX100">
         <v>2</v>
@@ -10722,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:82">
+    <row r="101" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42902.676736111112</v>
       </c>
@@ -10736,7 +10825,8 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>37766446</v>
+        <f t="shared" si="4"/>
+        <v>99</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -10748,7 +10838,7 @@
         <v>7</v>
       </c>
       <c r="I101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV101">
         <v>6</v>
@@ -10814,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:82">
+    <row r="102" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42902.677812499998</v>
       </c>
@@ -10828,7 +10918,8 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>29768955</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -10840,7 +10931,7 @@
         <v>7</v>
       </c>
       <c r="I102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N102">
         <v>5</v>
@@ -10906,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:82">
+    <row r="103" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42902.674212962964</v>
       </c>
@@ -10920,7 +11011,8 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>34067334</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -10932,7 +11024,7 @@
         <v>7</v>
       </c>
       <c r="I103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J103">
         <v>5</v>
@@ -10998,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:82">
+    <row r="104" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42902.680694444447</v>
       </c>
@@ -11012,7 +11104,8 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>43608685</v>
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -11024,7 +11117,7 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -11090,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:82">
+    <row r="105" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42902.686180555553</v>
       </c>
@@ -11104,7 +11197,8 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>34120654</v>
+        <f t="shared" si="4"/>
+        <v>103</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -11116,7 +11210,7 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -11182,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:82">
+    <row r="106" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42902.682083333333</v>
       </c>
@@ -11195,6 +11289,10 @@
       <c r="D106">
         <v>1</v>
       </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
       <c r="F106">
         <v>2</v>
       </c>
@@ -11205,7 +11303,7 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT106">
         <v>2</v>
@@ -11271,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:82">
+    <row r="107" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42902.682337962964</v>
       </c>
@@ -11285,7 +11383,8 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>41280604</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -11297,7 +11396,7 @@
         <v>7</v>
       </c>
       <c r="I107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT107">
         <v>3</v>
@@ -11363,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:82">
+    <row r="108" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42902.684756944444</v>
       </c>
@@ -11377,7 +11476,8 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>27753923</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -11389,7 +11489,7 @@
         <v>7</v>
       </c>
       <c r="I108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV108">
         <v>5</v>
@@ -11455,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:82">
+    <row r="109" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42902.686944444446</v>
       </c>
@@ -11469,7 +11569,8 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>37804664</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -11481,7 +11582,7 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -11547,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:82">
+    <row r="110" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42902.68440972222</v>
       </c>
@@ -11561,7 +11662,8 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>3214345</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -11573,7 +11675,7 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J110">
         <v>7</v>
@@ -11639,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:82">
+    <row r="111" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42902.686944444446</v>
       </c>
@@ -11653,7 +11755,8 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>7899370</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -11665,7 +11768,7 @@
         <v>7</v>
       </c>
       <c r="I111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AX111">
         <v>3</v>
@@ -11731,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:82">
+    <row r="112" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42902.682708333334</v>
       </c>
@@ -11745,7 +11848,8 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>31345986</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -11757,7 +11861,7 @@
         <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J112">
         <v>5</v>
@@ -11823,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:82">
+    <row r="113" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42902.689953703702</v>
       </c>
@@ -11837,7 +11941,8 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>31967679</v>
+        <f t="shared" si="4"/>
+        <v>111</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -11849,7 +11954,7 @@
         <v>7</v>
       </c>
       <c r="I113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L113">
         <v>5</v>
@@ -11915,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:82">
+    <row r="114" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42902.686342592591</v>
       </c>
@@ -11929,7 +12034,8 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>38082417</v>
+        <f t="shared" si="4"/>
+        <v>112</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -11941,7 +12047,7 @@
         <v>7</v>
       </c>
       <c r="I114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L114">
         <v>5</v>
@@ -12007,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:82">
+    <row r="115" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42902.69222222222</v>
       </c>
@@ -12021,7 +12127,8 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>31956791</v>
+        <f t="shared" si="4"/>
+        <v>113</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -12033,7 +12140,7 @@
         <v>7</v>
       </c>
       <c r="I115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -12099,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:82">
+    <row r="116" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42902.690081018518</v>
       </c>
@@ -12113,7 +12220,8 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>32148803</v>
+        <f t="shared" si="4"/>
+        <v>114</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -12125,7 +12233,7 @@
         <v>7</v>
       </c>
       <c r="I116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J116">
         <v>5</v>
@@ -12191,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:82">
+    <row r="117" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42902.693379629629</v>
       </c>
@@ -12205,7 +12313,8 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>27990857</v>
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -12217,7 +12326,7 @@
         <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT117">
         <v>3</v>
@@ -12283,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:82">
+    <row r="118" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42902.690069444441</v>
       </c>
@@ -12297,7 +12406,8 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>18785646</v>
+        <f t="shared" si="4"/>
+        <v>116</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -12309,7 +12419,7 @@
         <v>7</v>
       </c>
       <c r="I118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV118">
         <v>7</v>
@@ -12375,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:82">
+    <row r="119" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42902.699155092596</v>
       </c>
@@ -12389,7 +12499,8 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>37060395</v>
+        <f t="shared" si="4"/>
+        <v>117</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -12401,7 +12512,7 @@
         <v>7</v>
       </c>
       <c r="I119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -12467,7 +12578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:82">
+    <row r="120" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42902.694351851853</v>
       </c>
@@ -12481,7 +12592,8 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>6576528</v>
+        <f t="shared" si="4"/>
+        <v>118</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -12493,7 +12605,7 @@
         <v>7</v>
       </c>
       <c r="I120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J120">
         <v>7</v>
@@ -12559,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:82">
+    <row r="121" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42902.702291666668</v>
       </c>
@@ -12573,7 +12685,8 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>31708939</v>
+        <f t="shared" si="4"/>
+        <v>119</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -12585,7 +12698,7 @@
         <v>7</v>
       </c>
       <c r="I121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ121">
         <v>5</v>
@@ -12651,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:82">
+    <row r="122" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42902.703483796293</v>
       </c>
@@ -12665,7 +12778,8 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>42470457</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -12677,7 +12791,7 @@
         <v>7</v>
       </c>
       <c r="I122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT122">
         <v>6</v>
@@ -12743,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:82">
+    <row r="123" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42902.703344907408</v>
       </c>
@@ -12757,7 +12871,8 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>15004831</v>
+        <f t="shared" si="4"/>
+        <v>121</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -12769,7 +12884,7 @@
         <v>7</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N123">
         <v>7</v>
@@ -12835,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:82">
+    <row r="124" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42902.705428240741</v>
       </c>
@@ -12849,7 +12964,8 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>36826029</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -12861,7 +12977,7 @@
         <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J124">
         <v>6</v>
@@ -12927,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:82">
+    <row r="125" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42902.701249999998</v>
       </c>
@@ -12941,7 +13057,8 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>11257883</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -12953,7 +13070,7 @@
         <v>7</v>
       </c>
       <c r="I125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV125">
         <v>5</v>
@@ -13019,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:82">
+    <row r="126" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42902.709513888891</v>
       </c>
@@ -13033,7 +13150,8 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>43335715</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -13045,7 +13163,7 @@
         <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT126">
         <v>3</v>
@@ -13111,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:82">
+    <row r="127" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42902.710590277777</v>
       </c>
@@ -13125,7 +13243,8 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>39689821</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -13137,7 +13256,7 @@
         <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ127">
         <v>6</v>
@@ -13203,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:82">
+    <row r="128" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42902.710057870368</v>
       </c>
@@ -13217,7 +13336,8 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>20512953</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -13229,7 +13349,7 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L128">
         <v>4</v>
@@ -13295,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:82">
+    <row r="129" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42902.71371527778</v>
       </c>
@@ -13309,7 +13429,8 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>31726334</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -13321,7 +13442,7 @@
         <v>7</v>
       </c>
       <c r="I129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT129">
         <v>5</v>
@@ -13387,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:82">
+    <row r="130" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42902.712569444448</v>
       </c>
@@ -13401,7 +13522,8 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>5726847</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -13413,7 +13535,7 @@
         <v>7</v>
       </c>
       <c r="I130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L130">
         <v>6</v>
@@ -13479,7 +13601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:82">
+    <row r="131" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42902.714120370372</v>
       </c>
@@ -13493,7 +13615,8 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>43453472</v>
+        <f t="shared" si="4"/>
+        <v>129</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -13505,7 +13628,7 @@
         <v>7</v>
       </c>
       <c r="I131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J131">
         <v>6</v>
@@ -13571,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:82">
+    <row r="132" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42902.717615740738</v>
       </c>
@@ -13585,7 +13708,8 @@
         <v>1</v>
       </c>
       <c r="E132">
-        <v>6309240</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -13597,7 +13721,7 @@
         <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT132">
         <v>1</v>
@@ -13663,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:82">
+    <row r="133" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42902.717164351852</v>
       </c>
@@ -13677,7 +13801,8 @@
         <v>1</v>
       </c>
       <c r="E133">
-        <v>1023541456</v>
+        <f t="shared" ref="E133:E151" si="5">E132+1</f>
+        <v>131</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -13689,7 +13814,7 @@
         <v>7</v>
       </c>
       <c r="I133" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AX133">
         <v>6</v>
@@ -13755,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:82">
+    <row r="134" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42902.720509259256</v>
       </c>
@@ -13769,7 +13894,8 @@
         <v>1</v>
       </c>
       <c r="E134">
-        <v>9559045</v>
+        <f t="shared" si="5"/>
+        <v>132</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -13781,7 +13907,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J134">
         <v>7</v>
@@ -13847,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:82">
+    <row r="135" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42902.729375000003</v>
       </c>
@@ -13861,7 +13987,8 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>36166698</v>
+        <f t="shared" si="5"/>
+        <v>133</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -13873,7 +14000,7 @@
         <v>7</v>
       </c>
       <c r="I135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV135">
         <v>6</v>
@@ -13939,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:82">
+    <row r="136" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42902.717141203706</v>
       </c>
@@ -13953,7 +14080,8 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>6417754</v>
+        <f t="shared" si="5"/>
+        <v>134</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -13965,7 +14093,7 @@
         <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J136">
         <v>7</v>
@@ -14031,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:82">
+    <row r="137" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42902.736342592594</v>
       </c>
@@ -14044,8 +14172,9 @@
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="E137" t="s">
-        <v>89</v>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>135</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -14057,7 +14186,7 @@
         <v>7</v>
       </c>
       <c r="I137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT137">
         <v>3</v>
@@ -14123,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:82">
+    <row r="138" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42902.737060185187</v>
       </c>
@@ -14137,7 +14266,8 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>39103744</v>
+        <f t="shared" si="5"/>
+        <v>136</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -14149,7 +14279,7 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L138">
         <v>5</v>
@@ -14215,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:82">
+    <row r="139" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42902.737372685187</v>
       </c>
@@ -14229,7 +14359,8 @@
         <v>1</v>
       </c>
       <c r="E139">
-        <v>1023541</v>
+        <f t="shared" si="5"/>
+        <v>137</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -14241,7 +14372,7 @@
         <v>7</v>
       </c>
       <c r="I139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -14307,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:82">
+    <row r="140" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42902.744826388887</v>
       </c>
@@ -14321,7 +14452,8 @@
         <v>1</v>
       </c>
       <c r="E140">
-        <v>43611455</v>
+        <f t="shared" si="5"/>
+        <v>138</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -14333,7 +14465,7 @@
         <v>7</v>
       </c>
       <c r="I140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV140">
         <v>5</v>
@@ -14399,7 +14531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:82">
+    <row r="141" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42902.74795138889</v>
       </c>
@@ -14412,8 +14544,9 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" t="s">
-        <v>90</v>
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>139</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -14425,7 +14558,7 @@
         <v>7</v>
       </c>
       <c r="I141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J141">
         <v>7</v>
@@ -14491,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:82">
+    <row r="142" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42902.742847222224</v>
       </c>
@@ -14505,7 +14638,8 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>43175089</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -14517,7 +14651,7 @@
         <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX142">
         <v>2</v>
@@ -14583,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:82">
+    <row r="143" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42902.752951388888</v>
       </c>
@@ -14597,7 +14731,8 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>11438331</v>
+        <f t="shared" si="5"/>
+        <v>141</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -14609,7 +14744,7 @@
         <v>7</v>
       </c>
       <c r="I143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT143">
         <v>6</v>
@@ -14675,7 +14810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:82">
+    <row r="144" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42902.75509259259</v>
       </c>
@@ -14689,7 +14824,8 @@
         <v>1</v>
       </c>
       <c r="E144">
-        <v>41821656</v>
+        <f t="shared" si="5"/>
+        <v>142</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -14701,7 +14837,7 @@
         <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX144">
         <v>2</v>
@@ -14767,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:96">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42902.75472222222</v>
       </c>
@@ -14781,7 +14917,8 @@
         <v>1</v>
       </c>
       <c r="E145">
-        <v>28564242</v>
+        <f t="shared" si="5"/>
+        <v>143</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -14793,7 +14930,7 @@
         <v>7</v>
       </c>
       <c r="I145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L145">
         <v>3</v>
@@ -14859,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:96">
+    <row r="146" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42902.758298611108</v>
       </c>
@@ -14873,7 +15010,8 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>43484813</v>
+        <f t="shared" si="5"/>
+        <v>144</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -14885,7 +15023,7 @@
         <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L146">
         <v>5</v>
@@ -14951,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:96">
+    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42902.763599537036</v>
       </c>
@@ -14965,7 +15103,8 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>6546042</v>
+        <f t="shared" si="5"/>
+        <v>145</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -14977,7 +15116,7 @@
         <v>7</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT147">
         <v>7</v>
@@ -15043,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:96">
+    <row r="148" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42902.760127314818</v>
       </c>
@@ -15057,7 +15196,8 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>15925358</v>
+        <f t="shared" si="5"/>
+        <v>146</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -15069,7 +15209,7 @@
         <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J148">
         <v>6</v>
@@ -15135,7 +15275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:96">
+    <row r="149" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42902.764837962961</v>
       </c>
@@ -15149,7 +15289,8 @@
         <v>1</v>
       </c>
       <c r="E149">
-        <v>29350031</v>
+        <f t="shared" si="5"/>
+        <v>147</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -15161,7 +15302,7 @@
         <v>7</v>
       </c>
       <c r="I149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L149">
         <v>2</v>
@@ -15227,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:96">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42902.761631944442</v>
       </c>
@@ -15241,7 +15382,8 @@
         <v>1</v>
       </c>
       <c r="E150">
-        <v>5814726</v>
+        <f t="shared" si="5"/>
+        <v>148</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -15253,7 +15395,7 @@
         <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT150">
         <v>5</v>
@@ -15319,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:96">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42902.768784722219</v>
       </c>
@@ -15333,7 +15475,8 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>20043657</v>
+        <f t="shared" si="5"/>
+        <v>149</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -15345,7 +15488,7 @@
         <v>7</v>
       </c>
       <c r="I151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J151">
         <v>5</v>
@@ -15411,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:96">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -15509,7 +15652,7 @@
       <c r="CQ152" s="2"/>
       <c r="CR152" s="2"/>
     </row>
-    <row r="153" spans="1:96">
+    <row r="153" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -15607,7 +15750,7 @@
       <c r="CQ153" s="2"/>
       <c r="CR153" s="2"/>
     </row>
-    <row r="154" spans="1:96">
+    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -15705,7 +15848,7 @@
       <c r="CQ154" s="2"/>
       <c r="CR154" s="2"/>
     </row>
-    <row r="155" spans="1:96">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -15803,7 +15946,7 @@
       <c r="CQ155" s="2"/>
       <c r="CR155" s="2"/>
     </row>
-    <row r="156" spans="1:96">
+    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -15901,7 +16044,7 @@
       <c r="CQ156" s="2"/>
       <c r="CR156" s="2"/>
     </row>
-    <row r="157" spans="1:96">
+    <row r="157" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
